--- a/DashEmpresa/lotes/Remision.xlsx
+++ b/DashEmpresa/lotes/Remision.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\117875\Downloads\1.- A\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\CRM\DashEmpresa\lotes\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Fecha</t>
   </si>
@@ -35,9 +35,6 @@
     <t>Total</t>
   </si>
   <si>
-    <t>A1</t>
-  </si>
-  <si>
     <t>REMISION</t>
   </si>
   <si>
@@ -59,28 +56,19 @@
     <t>Concepto</t>
   </si>
   <si>
-    <t>Cod.Prod</t>
-  </si>
-  <si>
-    <t>RFC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XAXX010101000 </t>
-  </si>
-  <si>
-    <t>Remision Gatos</t>
-  </si>
-  <si>
     <t>Folio</t>
   </si>
   <si>
     <t>Serie</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
     <t>Remisiones</t>
+  </si>
+  <si>
+    <t>Proveedor</t>
+  </si>
+  <si>
+    <t>Producto</t>
   </si>
 </sst>
 </file>
@@ -608,14 +596,17 @@
       <pane xSplit="11" ySplit="6" topLeftCell="L7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="H1" sqref="H1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.140625" customWidth="1"/>
-    <col min="2" max="5" width="16.140625" style="13" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" style="13" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" style="13" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" style="13" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" style="13" customWidth="1"/>
+    <col min="6" max="6" width="17" customWidth="1"/>
     <col min="7" max="7" width="6.7109375" style="11" customWidth="1"/>
     <col min="8" max="8" width="15.7109375" style="12" customWidth="1"/>
     <col min="9" max="9" width="13.28515625" style="12" customWidth="1"/>
@@ -633,7 +624,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="18" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I1" s="18"/>
       <c r="J1" s="18"/>
@@ -655,7 +646,7 @@
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
       <c r="M2" s="9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -673,7 +664,7 @@
     </row>
     <row r="4" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="20"/>
       <c r="C4" s="20"/>
@@ -688,7 +679,7 @@
     </row>
     <row r="5" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="23"/>
       <c r="C5" s="23"/>
@@ -706,28 +697,28 @@
         <v>0</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" s="7" t="s">
         <v>8</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>9</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>1</v>
@@ -737,231 +728,33 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="10">
-        <v>43585</v>
-      </c>
-      <c r="B7" s="13">
-        <v>1000</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G7" s="11">
-        <v>1</v>
-      </c>
-      <c r="H7" s="12">
-        <v>1000</v>
-      </c>
-      <c r="J7" s="12">
-        <v>160</v>
-      </c>
-      <c r="K7" s="12">
-        <v>1160</v>
-      </c>
+      <c r="A7" s="10"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="10">
-        <v>43585</v>
-      </c>
-      <c r="B8" s="13">
-        <v>1000</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" t="s">
-        <v>3</v>
-      </c>
-      <c r="G8" s="11">
-        <v>1</v>
-      </c>
-      <c r="H8" s="12">
-        <v>1200</v>
-      </c>
-      <c r="J8" s="12">
-        <v>192</v>
-      </c>
-      <c r="K8" s="12">
-        <v>1392</v>
-      </c>
+      <c r="A8" s="10"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="10">
-        <v>43585</v>
-      </c>
-      <c r="B9" s="13">
-        <v>1000</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G9" s="11">
-        <v>1</v>
-      </c>
-      <c r="H9" s="12">
-        <v>11000</v>
-      </c>
-      <c r="I9" s="12">
-        <v>1200</v>
-      </c>
-      <c r="J9" s="12">
-        <v>1568</v>
-      </c>
-      <c r="K9" s="12">
-        <v>11368</v>
-      </c>
+      <c r="A9" s="10"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="10">
-        <v>43585</v>
-      </c>
-      <c r="B10" s="14">
-        <v>1000</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" t="s">
-        <v>3</v>
-      </c>
-      <c r="G10" s="11">
-        <v>1</v>
-      </c>
-      <c r="H10" s="12">
-        <v>1000</v>
-      </c>
-      <c r="J10" s="12">
-        <v>160</v>
-      </c>
-      <c r="K10" s="12">
-        <v>1160</v>
-      </c>
+      <c r="A10" s="10"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="10">
-        <v>43584</v>
-      </c>
-      <c r="B11" s="14">
-        <v>1001</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" t="s">
-        <v>3</v>
-      </c>
-      <c r="G11" s="11">
-        <v>5</v>
-      </c>
-      <c r="H11" s="12">
-        <v>2750</v>
-      </c>
-      <c r="J11" s="12">
-        <v>440</v>
-      </c>
-      <c r="K11" s="12">
-        <v>3190</v>
-      </c>
+      <c r="A11" s="10"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="10">
-        <v>43584</v>
-      </c>
-      <c r="B12" s="14">
-        <v>1001</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" t="s">
-        <v>3</v>
-      </c>
-      <c r="G12" s="11">
-        <v>1</v>
-      </c>
-      <c r="H12" s="12">
-        <v>1785.45</v>
-      </c>
-      <c r="J12" s="12">
-        <v>285.67</v>
-      </c>
-      <c r="K12" s="12">
-        <v>2071.12</v>
-      </c>
+      <c r="A12" s="10"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="10">
-        <v>43585</v>
-      </c>
-      <c r="B13" s="14">
-        <v>1000</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" t="s">
-        <v>3</v>
-      </c>
-      <c r="G13" s="11">
-        <v>1</v>
-      </c>
-      <c r="H13" s="12">
-        <v>1000</v>
-      </c>
-      <c r="J13" s="12">
-        <v>160</v>
-      </c>
-      <c r="K13" s="12">
-        <v>1160</v>
-      </c>
+      <c r="A13" s="10"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="4">
